--- a/Code/Results/Cases/Case_0_213/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_213/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1609268231503194</v>
+        <v>0.2278380961137856</v>
       </c>
       <c r="D2">
-        <v>0.08222520398831534</v>
+        <v>0.03691088125365383</v>
       </c>
       <c r="E2">
-        <v>0.06469905842883605</v>
+        <v>0.1315041352174866</v>
       </c>
       <c r="F2">
-        <v>0.309853544854839</v>
+        <v>0.6318360037285373</v>
       </c>
       <c r="G2">
-        <v>0.2070043699512496</v>
+        <v>0.4730821367942184</v>
       </c>
       <c r="H2">
-        <v>0.2080385562160245</v>
+        <v>0.6341495333500333</v>
       </c>
       <c r="I2">
-        <v>0.279917769440349</v>
+        <v>0.6685833842315176</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.721390542929612</v>
+        <v>1.25825904212428</v>
       </c>
       <c r="L2">
-        <v>0.0577802715626774</v>
+        <v>0.1522514919123914</v>
       </c>
       <c r="M2">
-        <v>0.8050554552043891</v>
+        <v>0.3665419600350148</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8237406891794166</v>
+        <v>2.173623400437691</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1469767575509167</v>
+        <v>0.2252848642968672</v>
       </c>
       <c r="D3">
-        <v>0.07307339293649306</v>
+        <v>0.03383171742079583</v>
       </c>
       <c r="E3">
-        <v>0.06173434339203965</v>
+        <v>0.1318257850124773</v>
       </c>
       <c r="F3">
-        <v>0.298940279085933</v>
+        <v>0.6370575343747973</v>
       </c>
       <c r="G3">
-        <v>0.2045547570787534</v>
+        <v>0.4797092800303915</v>
       </c>
       <c r="H3">
-        <v>0.2137298424112402</v>
+        <v>0.6416971003026859</v>
       </c>
       <c r="I3">
-        <v>0.2760720900575642</v>
+        <v>0.6754454033272914</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.247699303630611</v>
+        <v>1.103002450302881</v>
       </c>
       <c r="L3">
-        <v>0.05781092490854078</v>
+        <v>0.1538220988932366</v>
       </c>
       <c r="M3">
-        <v>0.7009833564213537</v>
+        <v>0.3341843945939402</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8300692089583777</v>
+        <v>2.20319772050469</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1385606141836746</v>
+        <v>0.2238134091090558</v>
       </c>
       <c r="D4">
-        <v>0.06744332114929819</v>
+        <v>0.03192935288705456</v>
       </c>
       <c r="E4">
-        <v>0.06003060420425221</v>
+        <v>0.1320941550783843</v>
       </c>
       <c r="F4">
-        <v>0.2932447903614701</v>
+        <v>0.6407716525669542</v>
       </c>
       <c r="G4">
-        <v>0.2040057039059349</v>
+        <v>0.4842258050265542</v>
       </c>
       <c r="H4">
-        <v>0.2178186765625725</v>
+        <v>0.6466859350042711</v>
       </c>
       <c r="I4">
-        <v>0.2746110902736056</v>
+        <v>0.6801399002738329</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.956662069948806</v>
+        <v>1.007309992534573</v>
       </c>
       <c r="L4">
-        <v>0.0579902407277757</v>
+        <v>0.1548796520978257</v>
       </c>
       <c r="M4">
-        <v>0.6371324592249366</v>
+        <v>0.314306037826853</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8372143696325622</v>
+        <v>2.223037971934374</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1351663315830791</v>
+        <v>0.2232380616524381</v>
       </c>
       <c r="D5">
-        <v>0.06514584601582385</v>
+        <v>0.03115122104105694</v>
       </c>
       <c r="E5">
-        <v>0.05936430778839075</v>
+        <v>0.1322213523650486</v>
       </c>
       <c r="F5">
-        <v>0.2911636807456617</v>
+        <v>0.6424127935539659</v>
       </c>
       <c r="G5">
-        <v>0.2040094297528015</v>
+        <v>0.4861785921904485</v>
       </c>
       <c r="H5">
-        <v>0.219628715770682</v>
+        <v>0.6488080667673515</v>
       </c>
       <c r="I5">
-        <v>0.274231459216228</v>
+        <v>0.6821738370535861</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.837987087413268</v>
+        <v>0.96822584283899</v>
       </c>
       <c r="L5">
-        <v>0.05810199904590618</v>
+        <v>0.155334037883943</v>
       </c>
       <c r="M5">
-        <v>0.6111180243905565</v>
+        <v>0.3062033495040595</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.840906966472815</v>
+        <v>2.231545285715967</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1346047881331458</v>
+        <v>0.2231439946717302</v>
       </c>
       <c r="D6">
-        <v>0.06476414761813487</v>
+        <v>0.03102183901212641</v>
       </c>
       <c r="E6">
-        <v>0.05925532258967259</v>
+        <v>0.1322435508790232</v>
       </c>
       <c r="F6">
-        <v>0.2908322325806054</v>
+        <v>0.642693006461414</v>
       </c>
       <c r="G6">
-        <v>0.2040234269230297</v>
+        <v>0.4865096244598206</v>
       </c>
       <c r="H6">
-        <v>0.2199377964407248</v>
+        <v>0.6491658282851489</v>
       </c>
       <c r="I6">
-        <v>0.2741811495695252</v>
+        <v>0.6825188690591375</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.818275907691572</v>
+        <v>0.9617306785015387</v>
       </c>
       <c r="L6">
-        <v>0.05812284545127611</v>
+        <v>0.1554109027667927</v>
       </c>
       <c r="M6">
-        <v>0.6067984677783542</v>
+        <v>0.304857795075165</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8415661830929366</v>
+        <v>2.23298340460731</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1385146972999252</v>
+        <v>0.2238055513438155</v>
       </c>
       <c r="D7">
-        <v>0.06741235002866119</v>
+        <v>0.03191887041423769</v>
       </c>
       <c r="E7">
-        <v>0.06002150667796258</v>
+        <v>0.1320957982789732</v>
       </c>
       <c r="F7">
-        <v>0.2932157693450037</v>
+        <v>0.6407932690928817</v>
       </c>
       <c r="G7">
-        <v>0.20400484948442</v>
+        <v>0.4842516867589879</v>
       </c>
       <c r="H7">
-        <v>0.2178425124023633</v>
+        <v>0.6467141939204382</v>
       </c>
       <c r="I7">
-        <v>0.2746051106397118</v>
+        <v>0.680166841316769</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.955061915883363</v>
+        <v>1.006783245281611</v>
       </c>
       <c r="L7">
-        <v>0.05799159345844629</v>
+        <v>0.1548856852730083</v>
       </c>
       <c r="M7">
-        <v>0.6367816070651386</v>
+        <v>0.31419676984315</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.837261057428961</v>
+        <v>2.223150995636132</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1560845214320921</v>
+        <v>0.2269378153071386</v>
       </c>
       <c r="D8">
-        <v>0.07907161995502321</v>
+        <v>0.03585165274062518</v>
       </c>
       <c r="E8">
-        <v>0.06365180211929555</v>
+        <v>0.1316003367512906</v>
       </c>
       <c r="F8">
-        <v>0.3058740305254659</v>
+        <v>0.6335308440551799</v>
       </c>
       <c r="G8">
-        <v>0.2059537224825547</v>
+        <v>0.4752741650608385</v>
       </c>
       <c r="H8">
-        <v>0.2098740731211208</v>
+        <v>0.6366783228248423</v>
       </c>
       <c r="I8">
-        <v>0.278398377247477</v>
+        <v>0.6708494727584196</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.558083712310804</v>
+        <v>1.204803865280041</v>
       </c>
       <c r="L8">
-        <v>0.05775650066687632</v>
+        <v>0.1527736886759321</v>
       </c>
       <c r="M8">
-        <v>0.7691565494195274</v>
+        <v>0.3553876305085666</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8252224264230534</v>
+        <v>2.183471286368103</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1918279819849715</v>
+        <v>0.2338407160175109</v>
       </c>
       <c r="D9">
-        <v>0.1018727436735247</v>
+        <v>0.04346876440253311</v>
       </c>
       <c r="E9">
-        <v>0.07175946446957226</v>
+        <v>0.131190705168045</v>
       </c>
       <c r="F9">
-        <v>0.3392870699299451</v>
+        <v>0.6233278784345799</v>
       </c>
       <c r="G9">
-        <v>0.217953520618174</v>
+        <v>0.461230440543325</v>
       </c>
       <c r="H9">
-        <v>0.1992312390618522</v>
+        <v>0.6198126370765991</v>
       </c>
       <c r="I9">
-        <v>0.2934843895100698</v>
+        <v>0.6564012113843773</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.740508397564213</v>
+        <v>1.590122654913841</v>
       </c>
       <c r="L9">
-        <v>0.05864813826650561</v>
+        <v>0.1493720019622415</v>
       </c>
       <c r="M9">
-        <v>1.029500055357815</v>
+        <v>0.4360562214952992</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.829309918992351</v>
+        <v>2.119027222972633</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2190311209501488</v>
+        <v>0.2393725822008719</v>
       </c>
       <c r="D10">
-        <v>0.1186228729086451</v>
+        <v>0.04900512043273864</v>
       </c>
       <c r="E10">
-        <v>0.07841235625183529</v>
+        <v>0.1312319888777687</v>
       </c>
       <c r="F10">
-        <v>0.3699724168010903</v>
+        <v>0.618304422949258</v>
       </c>
       <c r="G10">
-        <v>0.2326352548287858</v>
+        <v>0.4530987032918361</v>
       </c>
       <c r="H10">
-        <v>0.1948410958412623</v>
+        <v>0.6091386062167814</v>
       </c>
       <c r="I10">
-        <v>0.3099695223533345</v>
+        <v>0.6481239719539502</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.61136312043061</v>
+        <v>1.871270067951116</v>
       </c>
       <c r="L10">
-        <v>0.0602439199362621</v>
+        <v>0.147324556800946</v>
       </c>
       <c r="M10">
-        <v>1.221794046161136</v>
+        <v>0.4952351464866069</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8518823087829475</v>
+        <v>2.079864870017914</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2316483450946407</v>
+        <v>0.2419884655494258</v>
       </c>
       <c r="D11">
-        <v>0.1262513962650189</v>
+        <v>0.05151035292391271</v>
       </c>
       <c r="E11">
-        <v>0.08161218340111631</v>
+        <v>0.1313250222391815</v>
       </c>
       <c r="F11">
-        <v>0.3854769012032975</v>
+        <v>0.6165583339474736</v>
       </c>
       <c r="G11">
-        <v>0.240795893342117</v>
+        <v>0.4498773241453122</v>
       </c>
       <c r="H11">
-        <v>0.1936809952801823</v>
+        <v>0.6046558684600356</v>
       </c>
       <c r="I11">
-        <v>0.3188165291201486</v>
+        <v>0.6448676628239838</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>6.008534603449164</v>
+        <v>1.998725727598753</v>
       </c>
       <c r="L11">
-        <v>0.06120155822279116</v>
+        <v>0.146491371058044</v>
       </c>
       <c r="M11">
-        <v>1.309630504468672</v>
+        <v>0.5221334783128384</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.8670349904865589</v>
+        <v>2.063833696809752</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2364642763856466</v>
+        <v>0.2429932561366428</v>
       </c>
       <c r="D12">
-        <v>0.129142151103494</v>
+        <v>0.05245706544559425</v>
       </c>
       <c r="E12">
-        <v>0.0828507655404529</v>
+        <v>0.1313709204676172</v>
       </c>
       <c r="F12">
-        <v>0.3915892117989088</v>
+        <v>0.6159748329927979</v>
       </c>
       <c r="G12">
-        <v>0.24411778369155</v>
+        <v>0.4487264407827354</v>
       </c>
       <c r="H12">
-        <v>0.1933703442229699</v>
+        <v>0.6030120312101843</v>
       </c>
       <c r="I12">
-        <v>0.3223760608168575</v>
+        <v>0.6437079085078423</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.159125839525359</v>
+        <v>2.046924143952992</v>
       </c>
       <c r="L12">
-        <v>0.06159995792928186</v>
+        <v>0.1461900001946574</v>
       </c>
       <c r="M12">
-        <v>1.34295564141334</v>
+        <v>0.5323154426649239</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.8735320547519763</v>
+        <v>2.058020273869559</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2354253331525769</v>
+        <v>0.2427762257231194</v>
       </c>
       <c r="D13">
-        <v>0.1285194741452642</v>
+        <v>0.05225326220705995</v>
       </c>
       <c r="E13">
-        <v>0.08258278702598432</v>
+        <v>0.1313605611224418</v>
       </c>
       <c r="F13">
-        <v>0.3902617798547041</v>
+        <v>0.6160970415312761</v>
       </c>
       <c r="G13">
-        <v>0.2433917444698039</v>
+        <v>0.4489712316705194</v>
       </c>
       <c r="H13">
-        <v>0.1934313884707137</v>
+        <v>0.6033636728099054</v>
       </c>
       <c r="I13">
-        <v>0.3215998818382104</v>
+        <v>0.6439544183726866</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.126684070391093</v>
+        <v>2.036546748461546</v>
       </c>
       <c r="L13">
-        <v>0.06151252420408326</v>
+        <v>0.1462542767292874</v>
       </c>
       <c r="M13">
-        <v>1.335775465827041</v>
+        <v>0.5301227555352312</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.8720980917974117</v>
+        <v>2.059260846839749</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2320437726784519</v>
+        <v>0.2420708459122807</v>
       </c>
       <c r="D14">
-        <v>0.1264891759456361</v>
+        <v>0.05158827921800935</v>
       </c>
       <c r="E14">
-        <v>0.08171353205252885</v>
+        <v>0.1313285845530423</v>
       </c>
       <c r="F14">
-        <v>0.3859748202677267</v>
+        <v>0.6165087706113823</v>
       </c>
       <c r="G14">
-        <v>0.2410644342866561</v>
+        <v>0.449781256173587</v>
       </c>
       <c r="H14">
-        <v>0.1936528099021828</v>
+        <v>0.6045195528966758</v>
       </c>
       <c r="I14">
-        <v>0.3191050852498094</v>
+        <v>0.6447707785204813</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>6.020919735771599</v>
+        <v>2.002692385938985</v>
       </c>
       <c r="L14">
-        <v>0.06123360348771811</v>
+        <v>0.1464662936454886</v>
       </c>
       <c r="M14">
-        <v>1.312370844438931</v>
+        <v>0.5229712353502975</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.8675539564867165</v>
+        <v>2.063350263648417</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2299775250264418</v>
+        <v>0.2416406288244701</v>
       </c>
       <c r="D15">
-        <v>0.1252458426903758</v>
+        <v>0.05118070046910361</v>
       </c>
       <c r="E15">
-        <v>0.08118464833602346</v>
+        <v>0.131310387067451</v>
       </c>
       <c r="F15">
-        <v>0.3833809126449665</v>
+        <v>0.6167710914256688</v>
       </c>
       <c r="G15">
-        <v>0.2396696268639005</v>
+        <v>0.4502864113976344</v>
       </c>
       <c r="H15">
-        <v>0.1938054471927444</v>
+        <v>0.605234554827625</v>
       </c>
       <c r="I15">
-        <v>0.3176046945406981</v>
+        <v>0.6452803777147409</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.956162301962422</v>
+        <v>1.981946890354436</v>
       </c>
       <c r="L15">
-        <v>0.06106748917239813</v>
+        <v>0.146598001862106</v>
       </c>
       <c r="M15">
-        <v>1.298043447449714</v>
+        <v>0.5185902029927547</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.8648711441355488</v>
+        <v>2.065888669751104</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.218211702343055</v>
+        <v>0.2392036213799855</v>
       </c>
       <c r="D16">
-        <v>0.1181245694370148</v>
+        <v>0.04884112563257759</v>
       </c>
       <c r="E16">
-        <v>0.07820689236630685</v>
+        <v>0.1312274023255213</v>
       </c>
       <c r="F16">
-        <v>0.368991846159993</v>
+        <v>0.6184293977937401</v>
       </c>
       <c r="G16">
-        <v>0.2321333137648267</v>
+        <v>0.4533188660996217</v>
       </c>
       <c r="H16">
-        <v>0.1949344501329477</v>
+        <v>0.6094390723928385</v>
       </c>
       <c r="I16">
-        <v>0.3094197770586078</v>
+        <v>0.648347034662649</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.585431225004186</v>
+        <v>1.862931431763968</v>
       </c>
       <c r="L16">
-        <v>0.06018620381111006</v>
+        <v>0.1473809850365058</v>
       </c>
       <c r="M16">
-        <v>1.216061950595815</v>
+        <v>0.493476772169231</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.8509950931639878</v>
+        <v>2.08094850308018</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2110580460319511</v>
+        <v>0.2377339986060889</v>
       </c>
       <c r="D17">
-        <v>0.1137586571343263</v>
+        <v>0.04740243112289022</v>
       </c>
       <c r="E17">
-        <v>0.07642588873084222</v>
+        <v>0.1311955055243956</v>
       </c>
       <c r="F17">
-        <v>0.3605735023684247</v>
+        <v>0.6195849234032664</v>
       </c>
       <c r="G17">
-        <v>0.2279023772507784</v>
+        <v>0.4553017501453382</v>
       </c>
       <c r="H17">
-        <v>0.1958471611832024</v>
+        <v>0.6121139610662354</v>
       </c>
       <c r="I17">
-        <v>0.3047545489669901</v>
+        <v>0.6503588080738183</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.358290641479982</v>
+        <v>1.789804506847076</v>
       </c>
       <c r="L17">
-        <v>0.05970659838713743</v>
+        <v>0.1478864848204893</v>
       </c>
       <c r="M17">
-        <v>1.16586928878796</v>
+        <v>0.4780643006969001</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8437727633714474</v>
+        <v>2.090644642532737</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2069660615049713</v>
+        <v>0.2368980723001499</v>
       </c>
       <c r="D18">
-        <v>0.1112482814060911</v>
+        <v>0.04657368500909342</v>
       </c>
       <c r="E18">
-        <v>0.07541769948236166</v>
+        <v>0.1311841489356809</v>
       </c>
       <c r="F18">
-        <v>0.3558757703543804</v>
+        <v>0.6203002836287936</v>
       </c>
       <c r="G18">
-        <v>0.2256071515492195</v>
+        <v>0.45648720788936</v>
       </c>
       <c r="H18">
-        <v>0.1964503822635777</v>
+        <v>0.6136875854121726</v>
       </c>
       <c r="I18">
-        <v>0.302197108361284</v>
+        <v>0.6515638327901883</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.227738039998769</v>
+        <v>1.747702626669593</v>
       </c>
       <c r="L18">
-        <v>0.05945239607506636</v>
+        <v>0.1481864776938586</v>
       </c>
       <c r="M18">
-        <v>1.137033033065464</v>
+        <v>0.4691973777199223</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8400748007337313</v>
+        <v>2.096389480318976</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2055843747634043</v>
+        <v>0.2366166524434448</v>
       </c>
       <c r="D19">
-        <v>0.1103984241807581</v>
+        <v>0.04629287329265708</v>
       </c>
       <c r="E19">
-        <v>0.07507906860930547</v>
+        <v>0.1311815045342577</v>
       </c>
       <c r="F19">
-        <v>0.3543094243234535</v>
+        <v>0.6205512000705369</v>
       </c>
       <c r="G19">
-        <v>0.2248532350390775</v>
+        <v>0.4568962961377991</v>
       </c>
       <c r="H19">
-        <v>0.196667818937776</v>
+        <v>0.6142264143285701</v>
       </c>
       <c r="I19">
-        <v>0.301352365049226</v>
+        <v>0.6519800570830867</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.183549773707057</v>
+        <v>1.733440669356355</v>
       </c>
       <c r="L19">
-        <v>0.05936997479446404</v>
+        <v>0.1482896370780864</v>
       </c>
       <c r="M19">
-        <v>1.127274945650086</v>
+        <v>0.46619485220873</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8388994082028489</v>
+        <v>2.098363394924931</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2118172024183451</v>
+        <v>0.2378894741419515</v>
       </c>
       <c r="D20">
-        <v>0.1142233299439965</v>
+        <v>0.04755571207333276</v>
       </c>
       <c r="E20">
-        <v>0.07661378961448762</v>
+        <v>0.1311981776601812</v>
       </c>
       <c r="F20">
-        <v>0.3614545847429866</v>
+        <v>0.6194566637832466</v>
       </c>
       <c r="G20">
-        <v>0.2283383240192762</v>
+        <v>0.4550860140329789</v>
       </c>
       <c r="H20">
-        <v>0.1957418442375953</v>
+        <v>0.6118255816008471</v>
       </c>
       <c r="I20">
-        <v>0.3052380335194371</v>
+        <v>0.6501396922733846</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.382460240538137</v>
+        <v>1.797593279773992</v>
       </c>
       <c r="L20">
-        <v>0.0597553949048617</v>
+        <v>0.1478317167942542</v>
       </c>
       <c r="M20">
-        <v>1.171208863300777</v>
+        <v>0.4797052040717631</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8444939861970369</v>
+        <v>2.089595092428183</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2330359593038906</v>
+        <v>0.2422776479999982</v>
       </c>
       <c r="D21">
-        <v>0.1270854633711167</v>
+        <v>0.05178365459426004</v>
       </c>
       <c r="E21">
-        <v>0.08196810774599328</v>
+        <v>0.1313376873785259</v>
       </c>
       <c r="F21">
-        <v>0.3872273044235754</v>
+        <v>0.6163857254654275</v>
       </c>
       <c r="G21">
-        <v>0.2417415812087143</v>
+        <v>0.4495414579606773</v>
       </c>
       <c r="H21">
-        <v>0.1935842125351144</v>
+        <v>0.6041785856784045</v>
       </c>
       <c r="I21">
-        <v>0.3198320563866943</v>
+        <v>0.644529002250799</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>6.05197972331365</v>
+        <v>2.012638055703576</v>
       </c>
       <c r="L21">
-        <v>0.06131453838518652</v>
+        <v>0.1464036352931082</v>
       </c>
       <c r="M21">
-        <v>1.319243533121593</v>
+        <v>0.5250719196005491</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.8688676072343924</v>
+        <v>2.062142115974297</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2471271486901259</v>
+        <v>0.2452283753766835</v>
       </c>
       <c r="D22">
-        <v>0.1355036432726564</v>
+        <v>0.05453538289279436</v>
       </c>
       <c r="E22">
-        <v>0.08562512050438542</v>
+        <v>0.1314910450527051</v>
       </c>
       <c r="F22">
-        <v>0.4054862416044074</v>
+        <v>0.6148316973340471</v>
       </c>
       <c r="G22">
-        <v>0.2518610480582097</v>
+        <v>0.4463199832074096</v>
       </c>
       <c r="H22">
-        <v>0.1929282304862667</v>
+        <v>0.5994937331914798</v>
       </c>
       <c r="I22">
-        <v>0.3305983962207719</v>
+        <v>0.6412896328036908</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.490686386467644</v>
+        <v>2.152794547292956</v>
       </c>
       <c r="L22">
-        <v>0.06254323587687338</v>
+        <v>0.1455527189622536</v>
       </c>
       <c r="M22">
-        <v>1.416368140592652</v>
+        <v>0.5546989642601545</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.8892507596150807</v>
+        <v>2.04569968972703</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.239584847142396</v>
+        <v>0.2436459675289626</v>
       </c>
       <c r="D23">
-        <v>0.1310093437690227</v>
+        <v>0.05306780173381753</v>
       </c>
       <c r="E23">
-        <v>0.08365820218008224</v>
+        <v>0.1314035087032366</v>
       </c>
       <c r="F23">
-        <v>0.3956050732936234</v>
+        <v>0.6156196015087474</v>
       </c>
       <c r="G23">
-        <v>0.246329229458901</v>
+        <v>0.4480024511884508</v>
       </c>
       <c r="H23">
-        <v>0.1932064456674212</v>
+        <v>0.601965479847081</v>
       </c>
       <c r="I23">
-        <v>0.3247343959754545</v>
+        <v>0.6429793797620107</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.256420497811462</v>
+        <v>2.078026864190349</v>
       </c>
       <c r="L23">
-        <v>0.0618674181184744</v>
+        <v>0.1459993224336493</v>
       </c>
       <c r="M23">
-        <v>1.364492531144577</v>
+        <v>0.5388887363672552</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.8779446342347939</v>
+        <v>2.054337870913585</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2114739234312708</v>
+        <v>0.2378191556763909</v>
       </c>
       <c r="D24">
-        <v>0.114013252525794</v>
+        <v>0.04748641880175342</v>
       </c>
       <c r="E24">
-        <v>0.07652879076420405</v>
+        <v>0.1311969478410298</v>
       </c>
       <c r="F24">
-        <v>0.3610558062459788</v>
+        <v>0.6195144910069317</v>
       </c>
       <c r="G24">
-        <v>0.2281408065380148</v>
+        <v>0.4551834067105744</v>
       </c>
       <c r="H24">
-        <v>0.1957892141664175</v>
+        <v>0.6119558464604609</v>
       </c>
       <c r="I24">
-        <v>0.3050190630248579</v>
+        <v>0.6502386036830856</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.371533063674917</v>
+        <v>1.794072162936516</v>
       </c>
       <c r="L24">
-        <v>0.05973326712331328</v>
+        <v>0.1478564482201037</v>
       </c>
       <c r="M24">
-        <v>1.168794779681789</v>
+        <v>0.4789633705725436</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8441665107103233</v>
+        <v>2.090069063303829</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.182004838959287</v>
+        <v>0.2318922232936131</v>
       </c>
       <c r="D25">
-        <v>0.09570755775973794</v>
+        <v>0.04141851730027213</v>
       </c>
       <c r="E25">
-        <v>0.06945096669646134</v>
+        <v>0.1312413948064766</v>
       </c>
       <c r="F25">
-        <v>0.3292386056659637</v>
+        <v>0.6256545842758925</v>
       </c>
       <c r="G25">
-        <v>0.2137440834125997</v>
+        <v>0.4646468143472902</v>
       </c>
       <c r="H25">
-        <v>0.2015379554103447</v>
+        <v>0.6240737899737283</v>
       </c>
       <c r="I25">
-        <v>0.2885108410369526</v>
+        <v>0.659899808625017</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.420426373407167</v>
+        <v>1.486217086359432</v>
       </c>
       <c r="L25">
-        <v>0.05825054898006954</v>
+        <v>0.1502129615905368</v>
       </c>
       <c r="M25">
-        <v>0.958934091475065</v>
+        <v>0.4142470673742906</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8249716734685251</v>
+        <v>2.135026270040342</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_213/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_213/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2278380961137856</v>
+        <v>0.1609268231501773</v>
       </c>
       <c r="D2">
-        <v>0.03691088125365383</v>
+        <v>0.08222520398832245</v>
       </c>
       <c r="E2">
-        <v>0.1315041352174866</v>
+        <v>0.06469905842885382</v>
       </c>
       <c r="F2">
-        <v>0.6318360037285373</v>
+        <v>0.3098535448548461</v>
       </c>
       <c r="G2">
-        <v>0.4730821367942184</v>
+        <v>0.2070043699513064</v>
       </c>
       <c r="H2">
-        <v>0.6341495333500333</v>
+        <v>0.2080385562160245</v>
       </c>
       <c r="I2">
-        <v>0.6685833842315176</v>
+        <v>0.2799177694403667</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.25825904212428</v>
+        <v>3.721390542929669</v>
       </c>
       <c r="L2">
-        <v>0.1522514919123914</v>
+        <v>0.05778027156271648</v>
       </c>
       <c r="M2">
-        <v>0.3665419600350148</v>
+        <v>0.8050554552043891</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.173623400437691</v>
+        <v>0.823740689179445</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2252848642968672</v>
+        <v>0.1469767575509167</v>
       </c>
       <c r="D3">
-        <v>0.03383171742079583</v>
+        <v>0.07307339293646464</v>
       </c>
       <c r="E3">
-        <v>0.1318257850124773</v>
+        <v>0.06173434339205031</v>
       </c>
       <c r="F3">
-        <v>0.6370575343747973</v>
+        <v>0.2989402790859259</v>
       </c>
       <c r="G3">
-        <v>0.4797092800303915</v>
+        <v>0.2045547570786965</v>
       </c>
       <c r="H3">
-        <v>0.6416971003026859</v>
+        <v>0.2137298424112402</v>
       </c>
       <c r="I3">
-        <v>0.6754454033272914</v>
+        <v>0.2760720900575606</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.103002450302881</v>
+        <v>3.247699303630668</v>
       </c>
       <c r="L3">
-        <v>0.1538220988932366</v>
+        <v>0.05781092490851236</v>
       </c>
       <c r="M3">
-        <v>0.3341843945939402</v>
+        <v>0.7009833564213679</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.20319772050469</v>
+        <v>0.8300692089583777</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2238134091090558</v>
+        <v>0.1385606141837457</v>
       </c>
       <c r="D4">
-        <v>0.03192935288705456</v>
+        <v>0.06744332114932661</v>
       </c>
       <c r="E4">
-        <v>0.1320941550783843</v>
+        <v>0.06003060420425221</v>
       </c>
       <c r="F4">
-        <v>0.6407716525669542</v>
+        <v>0.2932447903614701</v>
       </c>
       <c r="G4">
-        <v>0.4842258050265542</v>
+        <v>0.2040057039059135</v>
       </c>
       <c r="H4">
-        <v>0.6466859350042711</v>
+        <v>0.2178186765624588</v>
       </c>
       <c r="I4">
-        <v>0.6801399002738329</v>
+        <v>0.2746110902736056</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.007309992534573</v>
+        <v>2.956662069948635</v>
       </c>
       <c r="L4">
-        <v>0.1548796520978257</v>
+        <v>0.05799024072771886</v>
       </c>
       <c r="M4">
-        <v>0.314306037826853</v>
+        <v>0.6371324592249366</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.223037971934374</v>
+        <v>0.8372143696324201</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2232380616524381</v>
+        <v>0.1351663315829938</v>
       </c>
       <c r="D5">
-        <v>0.03115122104105694</v>
+        <v>0.06514584601568174</v>
       </c>
       <c r="E5">
-        <v>0.1322213523650486</v>
+        <v>0.05936430778838009</v>
       </c>
       <c r="F5">
-        <v>0.6424127935539659</v>
+        <v>0.2911636807456759</v>
       </c>
       <c r="G5">
-        <v>0.4861785921904485</v>
+        <v>0.2040094297528086</v>
       </c>
       <c r="H5">
-        <v>0.6488080667673515</v>
+        <v>0.2196287157706891</v>
       </c>
       <c r="I5">
-        <v>0.6821738370535861</v>
+        <v>0.2742314592162316</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.96822584283899</v>
+        <v>2.837987087413296</v>
       </c>
       <c r="L5">
-        <v>0.155334037883943</v>
+        <v>0.05810199904587776</v>
       </c>
       <c r="M5">
-        <v>0.3062033495040595</v>
+        <v>0.6111180243905423</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.231545285715967</v>
+        <v>0.8409069664728293</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2231439946717302</v>
+        <v>0.1346047881331316</v>
       </c>
       <c r="D6">
-        <v>0.03102183901212641</v>
+        <v>0.06476414761825566</v>
       </c>
       <c r="E6">
-        <v>0.1322435508790232</v>
+        <v>0.0592553225896868</v>
       </c>
       <c r="F6">
-        <v>0.642693006461414</v>
+        <v>0.2908322325806054</v>
       </c>
       <c r="G6">
-        <v>0.4865096244598206</v>
+        <v>0.2040234269230936</v>
       </c>
       <c r="H6">
-        <v>0.6491658282851489</v>
+        <v>0.2199377964406111</v>
       </c>
       <c r="I6">
-        <v>0.6825188690591375</v>
+        <v>0.274181149569543</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9617306785015387</v>
+        <v>2.818275907691685</v>
       </c>
       <c r="L6">
-        <v>0.1554109027667927</v>
+        <v>0.05812284545128676</v>
       </c>
       <c r="M6">
-        <v>0.304857795075165</v>
+        <v>0.6067984677783471</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.23298340460731</v>
+        <v>0.841566183092894</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2238055513438155</v>
+        <v>0.1385146972996836</v>
       </c>
       <c r="D7">
-        <v>0.03191887041423769</v>
+        <v>0.06741235002849066</v>
       </c>
       <c r="E7">
-        <v>0.1320957982789732</v>
+        <v>0.06002150667794304</v>
       </c>
       <c r="F7">
-        <v>0.6407932690928817</v>
+        <v>0.2932157693450037</v>
       </c>
       <c r="G7">
-        <v>0.4842516867589879</v>
+        <v>0.2040048494844129</v>
       </c>
       <c r="H7">
-        <v>0.6467141939204382</v>
+        <v>0.2178425124023633</v>
       </c>
       <c r="I7">
-        <v>0.680166841316769</v>
+        <v>0.2746051106396941</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.006783245281611</v>
+        <v>2.955061915883363</v>
       </c>
       <c r="L7">
-        <v>0.1548856852730083</v>
+        <v>0.05799159345847116</v>
       </c>
       <c r="M7">
-        <v>0.31419676984315</v>
+        <v>0.6367816070651457</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.223150995636132</v>
+        <v>0.8372610574289041</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2269378153071386</v>
+        <v>0.1560845214322626</v>
       </c>
       <c r="D8">
-        <v>0.03585165274062518</v>
+        <v>0.07907161995499479</v>
       </c>
       <c r="E8">
-        <v>0.1316003367512906</v>
+        <v>0.06365180211930266</v>
       </c>
       <c r="F8">
-        <v>0.6335308440551799</v>
+        <v>0.3058740305254659</v>
       </c>
       <c r="G8">
-        <v>0.4752741650608385</v>
+        <v>0.2059537224825476</v>
       </c>
       <c r="H8">
-        <v>0.6366783228248423</v>
+        <v>0.2098740731212345</v>
       </c>
       <c r="I8">
-        <v>0.6708494727584196</v>
+        <v>0.2783983772474699</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.204803865280041</v>
+        <v>3.558083712310747</v>
       </c>
       <c r="L8">
-        <v>0.1527736886759321</v>
+        <v>0.05775650066685856</v>
       </c>
       <c r="M8">
-        <v>0.3553876305085666</v>
+        <v>0.7691565494195487</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.183471286368103</v>
+        <v>0.8252224264230961</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2338407160175109</v>
+        <v>0.1918279819849431</v>
       </c>
       <c r="D9">
-        <v>0.04346876440253311</v>
+        <v>0.1018727436735389</v>
       </c>
       <c r="E9">
-        <v>0.131190705168045</v>
+        <v>0.07175946446957226</v>
       </c>
       <c r="F9">
-        <v>0.6233278784345799</v>
+        <v>0.3392870699299451</v>
       </c>
       <c r="G9">
-        <v>0.461230440543325</v>
+        <v>0.2179535206182379</v>
       </c>
       <c r="H9">
-        <v>0.6198126370765991</v>
+        <v>0.1992312390618451</v>
       </c>
       <c r="I9">
-        <v>0.6564012113843773</v>
+        <v>0.2934843895100627</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.590122654913841</v>
+        <v>4.740508397564327</v>
       </c>
       <c r="L9">
-        <v>0.1493720019622415</v>
+        <v>0.05864813826654114</v>
       </c>
       <c r="M9">
-        <v>0.4360562214952992</v>
+        <v>1.029500055357822</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.119027222972633</v>
+        <v>0.8293099189924078</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2393725822008719</v>
+        <v>0.219031120950163</v>
       </c>
       <c r="D10">
-        <v>0.04900512043273864</v>
+        <v>0.1186228729086451</v>
       </c>
       <c r="E10">
-        <v>0.1312319888777687</v>
+        <v>0.07841235625182108</v>
       </c>
       <c r="F10">
-        <v>0.618304422949258</v>
+        <v>0.369972416801069</v>
       </c>
       <c r="G10">
-        <v>0.4530987032918361</v>
+        <v>0.2326352548288426</v>
       </c>
       <c r="H10">
-        <v>0.6091386062167814</v>
+        <v>0.1948410958412623</v>
       </c>
       <c r="I10">
-        <v>0.6481239719539502</v>
+        <v>0.3099695223533416</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.871270067951116</v>
+        <v>5.61136312043061</v>
       </c>
       <c r="L10">
-        <v>0.147324556800946</v>
+        <v>0.06024391993617328</v>
       </c>
       <c r="M10">
-        <v>0.4952351464866069</v>
+        <v>1.221794046161151</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.079864870017914</v>
+        <v>0.8518823087829475</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2419884655494258</v>
+        <v>0.231648345094257</v>
       </c>
       <c r="D11">
-        <v>0.05151035292391271</v>
+        <v>0.1262513962651042</v>
       </c>
       <c r="E11">
-        <v>0.1313250222391815</v>
+        <v>0.08161218340113408</v>
       </c>
       <c r="F11">
-        <v>0.6165583339474736</v>
+        <v>0.3854769012032975</v>
       </c>
       <c r="G11">
-        <v>0.4498773241453122</v>
+        <v>0.240795893342117</v>
       </c>
       <c r="H11">
-        <v>0.6046558684600356</v>
+        <v>0.1936809952801752</v>
       </c>
       <c r="I11">
-        <v>0.6448676628239838</v>
+        <v>0.3188165291201486</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.998725727598753</v>
+        <v>6.008534603449164</v>
       </c>
       <c r="L11">
-        <v>0.146491371058044</v>
+        <v>0.06120155822260998</v>
       </c>
       <c r="M11">
-        <v>0.5221334783128384</v>
+        <v>1.309630504468672</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.063833696809752</v>
+        <v>0.8670349904865446</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2429932561366428</v>
+        <v>0.2364642763858598</v>
       </c>
       <c r="D12">
-        <v>0.05245706544559425</v>
+        <v>0.129142151103494</v>
       </c>
       <c r="E12">
-        <v>0.1313709204676172</v>
+        <v>0.08285076554043869</v>
       </c>
       <c r="F12">
-        <v>0.6159748329927979</v>
+        <v>0.3915892117988946</v>
       </c>
       <c r="G12">
-        <v>0.4487264407827354</v>
+        <v>0.2441177836914932</v>
       </c>
       <c r="H12">
-        <v>0.6030120312101843</v>
+        <v>0.1933703442229699</v>
       </c>
       <c r="I12">
-        <v>0.6437079085078423</v>
+        <v>0.3223760608168575</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.046924143952992</v>
+        <v>6.159125839525132</v>
       </c>
       <c r="L12">
-        <v>0.1461900001946574</v>
+        <v>0.0615999579292712</v>
       </c>
       <c r="M12">
-        <v>0.5323154426649239</v>
+        <v>1.34295564141334</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.058020273869559</v>
+        <v>0.8735320547519194</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2427762257231194</v>
+        <v>0.2354253331521079</v>
       </c>
       <c r="D13">
-        <v>0.05225326220705995</v>
+        <v>0.1285194741453637</v>
       </c>
       <c r="E13">
-        <v>0.1313605611224418</v>
+        <v>0.08258278702600919</v>
       </c>
       <c r="F13">
-        <v>0.6160970415312761</v>
+        <v>0.3902617798547112</v>
       </c>
       <c r="G13">
-        <v>0.4489712316705194</v>
+        <v>0.243391744469875</v>
       </c>
       <c r="H13">
-        <v>0.6033636728099054</v>
+        <v>0.1934313884707066</v>
       </c>
       <c r="I13">
-        <v>0.6439544183726866</v>
+        <v>0.3215998818382175</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.036546748461546</v>
+        <v>6.12668407039115</v>
       </c>
       <c r="L13">
-        <v>0.1462542767292874</v>
+        <v>0.06151252420401221</v>
       </c>
       <c r="M13">
-        <v>0.5301227555352312</v>
+        <v>1.335775465827055</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.059260846839749</v>
+        <v>0.8720980917974117</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2420708459122807</v>
+        <v>0.2320437726786224</v>
       </c>
       <c r="D14">
-        <v>0.05158827921800935</v>
+        <v>0.1264891759456646</v>
       </c>
       <c r="E14">
-        <v>0.1313285845530423</v>
+        <v>0.08171353205251819</v>
       </c>
       <c r="F14">
-        <v>0.6165087706113823</v>
+        <v>0.385974820267748</v>
       </c>
       <c r="G14">
-        <v>0.449781256173587</v>
+        <v>0.2410644342865922</v>
       </c>
       <c r="H14">
-        <v>0.6045195528966758</v>
+        <v>0.1936528099022894</v>
       </c>
       <c r="I14">
-        <v>0.6447707785204813</v>
+        <v>0.3191050852497952</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.002692385938985</v>
+        <v>6.020919735771542</v>
       </c>
       <c r="L14">
-        <v>0.1464662936454886</v>
+        <v>0.06123360348768614</v>
       </c>
       <c r="M14">
-        <v>0.5229712353502975</v>
+        <v>1.312370844438917</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.063350263648417</v>
+        <v>0.8675539564867023</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2416406288244701</v>
+        <v>0.2299775250266691</v>
       </c>
       <c r="D15">
-        <v>0.05118070046910361</v>
+        <v>0.1252458426905321</v>
       </c>
       <c r="E15">
-        <v>0.131310387067451</v>
+        <v>0.08118464833603767</v>
       </c>
       <c r="F15">
-        <v>0.6167710914256688</v>
+        <v>0.3833809126449808</v>
       </c>
       <c r="G15">
-        <v>0.4502864113976344</v>
+        <v>0.2396696268640142</v>
       </c>
       <c r="H15">
-        <v>0.605234554827625</v>
+        <v>0.1938054471927444</v>
       </c>
       <c r="I15">
-        <v>0.6452803777147409</v>
+        <v>0.3176046945407194</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.981946890354436</v>
+        <v>5.956162301962536</v>
       </c>
       <c r="L15">
-        <v>0.146598001862106</v>
+        <v>0.06106748917236615</v>
       </c>
       <c r="M15">
-        <v>0.5185902029927547</v>
+        <v>1.298043447449714</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.065888669751104</v>
+        <v>0.864871144135563</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2392036213799855</v>
+        <v>0.2182117023429697</v>
       </c>
       <c r="D16">
-        <v>0.04884112563257759</v>
+        <v>0.118124569437029</v>
       </c>
       <c r="E16">
-        <v>0.1312274023255213</v>
+        <v>0.07820689236631395</v>
       </c>
       <c r="F16">
-        <v>0.6184293977937401</v>
+        <v>0.368991846159993</v>
       </c>
       <c r="G16">
-        <v>0.4533188660996217</v>
+        <v>0.2321333137648196</v>
       </c>
       <c r="H16">
-        <v>0.6094390723928385</v>
+        <v>0.1949344501329549</v>
       </c>
       <c r="I16">
-        <v>0.648347034662649</v>
+        <v>0.309419777058622</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.862931431763968</v>
+        <v>5.585431225004072</v>
       </c>
       <c r="L16">
-        <v>0.1473809850365058</v>
+        <v>0.0601862038110994</v>
       </c>
       <c r="M16">
-        <v>0.493476772169231</v>
+        <v>1.216061950595801</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.08094850308018</v>
+        <v>0.8509950931639878</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2377339986060889</v>
+        <v>0.2110580460322353</v>
       </c>
       <c r="D17">
-        <v>0.04740243112289022</v>
+        <v>0.1137586571341842</v>
       </c>
       <c r="E17">
-        <v>0.1311955055243956</v>
+        <v>0.07642588873085643</v>
       </c>
       <c r="F17">
-        <v>0.6195849234032664</v>
+        <v>0.3605735023684318</v>
       </c>
       <c r="G17">
-        <v>0.4553017501453382</v>
+        <v>0.2279023772508211</v>
       </c>
       <c r="H17">
-        <v>0.6121139610662354</v>
+        <v>0.1958471611831953</v>
       </c>
       <c r="I17">
-        <v>0.6503588080738183</v>
+        <v>0.3047545489669901</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.789804506847076</v>
+        <v>5.358290641480153</v>
       </c>
       <c r="L17">
-        <v>0.1478864848204893</v>
+        <v>0.05970659838712322</v>
       </c>
       <c r="M17">
-        <v>0.4780643006969001</v>
+        <v>1.16586928878796</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.090644642532737</v>
+        <v>0.8437727633714474</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2368980723001499</v>
+        <v>0.2069660615050708</v>
       </c>
       <c r="D18">
-        <v>0.04657368500909342</v>
+        <v>0.111248281406219</v>
       </c>
       <c r="E18">
-        <v>0.1311841489356809</v>
+        <v>0.07541769948233323</v>
       </c>
       <c r="F18">
-        <v>0.6203002836287936</v>
+        <v>0.3558757703543733</v>
       </c>
       <c r="G18">
-        <v>0.45648720788936</v>
+        <v>0.2256071515491556</v>
       </c>
       <c r="H18">
-        <v>0.6136875854121726</v>
+        <v>0.1964503822636914</v>
       </c>
       <c r="I18">
-        <v>0.6515638327901883</v>
+        <v>0.3021971083612627</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.747702626669593</v>
+        <v>5.227738039998769</v>
       </c>
       <c r="L18">
-        <v>0.1481864776938586</v>
+        <v>0.0594523960751232</v>
       </c>
       <c r="M18">
-        <v>0.4691973777199223</v>
+        <v>1.13703303306545</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.096389480318976</v>
+        <v>0.8400748007338024</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2366166524434448</v>
+        <v>0.2055843747635606</v>
       </c>
       <c r="D19">
-        <v>0.04629287329265708</v>
+        <v>0.1103984241808718</v>
       </c>
       <c r="E19">
-        <v>0.1311815045342577</v>
+        <v>0.07507906860930547</v>
       </c>
       <c r="F19">
-        <v>0.6205512000705369</v>
+        <v>0.3543094243234464</v>
       </c>
       <c r="G19">
-        <v>0.4568962961377991</v>
+        <v>0.2248532350390064</v>
       </c>
       <c r="H19">
-        <v>0.6142264143285701</v>
+        <v>0.1966678189378896</v>
       </c>
       <c r="I19">
-        <v>0.6519800570830867</v>
+        <v>0.3013523650492189</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.733440669356355</v>
+        <v>5.183549773707114</v>
       </c>
       <c r="L19">
-        <v>0.1482896370780864</v>
+        <v>0.05936997479438944</v>
       </c>
       <c r="M19">
-        <v>0.46619485220873</v>
+        <v>1.127274945650072</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.098363394924931</v>
+        <v>0.8388994082028631</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2378894741419515</v>
+        <v>0.2118172024183451</v>
       </c>
       <c r="D20">
-        <v>0.04755571207333276</v>
+        <v>0.1142233299441102</v>
       </c>
       <c r="E20">
-        <v>0.1311981776601812</v>
+        <v>0.07661378961449117</v>
       </c>
       <c r="F20">
-        <v>0.6194566637832466</v>
+        <v>0.3614545847429795</v>
       </c>
       <c r="G20">
-        <v>0.4550860140329789</v>
+        <v>0.2283383240193118</v>
       </c>
       <c r="H20">
-        <v>0.6118255816008471</v>
+        <v>0.1957418442375882</v>
       </c>
       <c r="I20">
-        <v>0.6501396922733846</v>
+        <v>0.3052380335194371</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.797593279773992</v>
+        <v>5.382460240538194</v>
       </c>
       <c r="L20">
-        <v>0.1478317167942542</v>
+        <v>0.05975539490488657</v>
       </c>
       <c r="M20">
-        <v>0.4797052040717631</v>
+        <v>1.171208863300777</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.089595092428183</v>
+        <v>0.8444939861970511</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2422776479999982</v>
+        <v>0.2330359593038906</v>
       </c>
       <c r="D21">
-        <v>0.05178365459426004</v>
+        <v>0.1270854633710172</v>
       </c>
       <c r="E21">
-        <v>0.1313376873785259</v>
+        <v>0.08196810774598617</v>
       </c>
       <c r="F21">
-        <v>0.6163857254654275</v>
+        <v>0.3872273044235541</v>
       </c>
       <c r="G21">
-        <v>0.4495414579606773</v>
+        <v>0.2417415812087143</v>
       </c>
       <c r="H21">
-        <v>0.6041785856784045</v>
+        <v>0.1935842125351144</v>
       </c>
       <c r="I21">
-        <v>0.644529002250799</v>
+        <v>0.3198320563866943</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.012638055703576</v>
+        <v>6.05197972331348</v>
       </c>
       <c r="L21">
-        <v>0.1464036352931082</v>
+        <v>0.06131453838524337</v>
       </c>
       <c r="M21">
-        <v>0.5250719196005491</v>
+        <v>1.319243533121607</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.062142115974297</v>
+        <v>0.8688676072343355</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2452283753766835</v>
+        <v>0.2471271486902964</v>
       </c>
       <c r="D22">
-        <v>0.05453538289279436</v>
+        <v>0.1355036432728127</v>
       </c>
       <c r="E22">
-        <v>0.1314910450527051</v>
+        <v>0.08562512050438542</v>
       </c>
       <c r="F22">
-        <v>0.6148316973340471</v>
+        <v>0.4054862416044074</v>
       </c>
       <c r="G22">
-        <v>0.4463199832074096</v>
+        <v>0.2518610480582666</v>
       </c>
       <c r="H22">
-        <v>0.5994937331914798</v>
+        <v>0.1929282304862667</v>
       </c>
       <c r="I22">
-        <v>0.6412896328036908</v>
+        <v>0.3305983962207648</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.152794547292956</v>
+        <v>6.490686386467587</v>
       </c>
       <c r="L22">
-        <v>0.1455527189622536</v>
+        <v>0.06254323587689825</v>
       </c>
       <c r="M22">
-        <v>0.5546989642601545</v>
+        <v>1.416368140592624</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.04569968972703</v>
+        <v>0.8892507596150949</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2436459675289626</v>
+        <v>0.2395848471426802</v>
       </c>
       <c r="D23">
-        <v>0.05306780173381753</v>
+        <v>0.1310093437689801</v>
       </c>
       <c r="E23">
-        <v>0.1314035087032366</v>
+        <v>0.08365820218008224</v>
       </c>
       <c r="F23">
-        <v>0.6156196015087474</v>
+        <v>0.3956050732936234</v>
       </c>
       <c r="G23">
-        <v>0.4480024511884508</v>
+        <v>0.2463292294588442</v>
       </c>
       <c r="H23">
-        <v>0.601965479847081</v>
+        <v>0.1932064456674212</v>
       </c>
       <c r="I23">
-        <v>0.6429793797620107</v>
+        <v>0.3247343959754687</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.078026864190349</v>
+        <v>6.256420497811348</v>
       </c>
       <c r="L23">
-        <v>0.1459993224336493</v>
+        <v>0.06186741811852414</v>
       </c>
       <c r="M23">
-        <v>0.5388887363672552</v>
+        <v>1.364492531144577</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.054337870913585</v>
+        <v>0.8779446342347939</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2378191556763909</v>
+        <v>0.2114739234313561</v>
       </c>
       <c r="D24">
-        <v>0.04748641880175342</v>
+        <v>0.1140132525256803</v>
       </c>
       <c r="E24">
-        <v>0.1311969478410298</v>
+        <v>0.07652879076418984</v>
       </c>
       <c r="F24">
-        <v>0.6195144910069317</v>
+        <v>0.361055806245993</v>
       </c>
       <c r="G24">
-        <v>0.4551834067105744</v>
+        <v>0.2281408065380148</v>
       </c>
       <c r="H24">
-        <v>0.6119558464604609</v>
+        <v>0.1957892141664033</v>
       </c>
       <c r="I24">
-        <v>0.6502386036830856</v>
+        <v>0.3050190630248579</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.794072162936516</v>
+        <v>5.371533063674804</v>
       </c>
       <c r="L24">
-        <v>0.1478564482201037</v>
+        <v>0.05973326712333815</v>
       </c>
       <c r="M24">
-        <v>0.4789633705725436</v>
+        <v>1.168794779681818</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.090069063303829</v>
+        <v>0.8441665107103233</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2318922232936131</v>
+        <v>0.1820048389592728</v>
       </c>
       <c r="D25">
-        <v>0.04141851730027213</v>
+        <v>0.09570755775973794</v>
       </c>
       <c r="E25">
-        <v>0.1312413948064766</v>
+        <v>0.06945096669644713</v>
       </c>
       <c r="F25">
-        <v>0.6256545842758925</v>
+        <v>0.3292386056659637</v>
       </c>
       <c r="G25">
-        <v>0.4646468143472902</v>
+        <v>0.2137440834127275</v>
       </c>
       <c r="H25">
-        <v>0.6240737899737283</v>
+        <v>0.2015379554103447</v>
       </c>
       <c r="I25">
-        <v>0.659899808625017</v>
+        <v>0.2885108410369526</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.486217086359432</v>
+        <v>4.420426373407167</v>
       </c>
       <c r="L25">
-        <v>0.1502129615905368</v>
+        <v>0.05825054898006243</v>
       </c>
       <c r="M25">
-        <v>0.4142470673742906</v>
+        <v>0.9589340914750579</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.135026270040342</v>
+        <v>0.8249716734685251</v>
       </c>
     </row>
   </sheetData>
